--- a/notas.xlsx
+++ b/notas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="18735" windowHeight="11700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Gabarito" sheetId="2" r:id="rId1"/>
@@ -481,7 +481,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5321" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5366" uniqueCount="97">
   <si>
     <t>Aluno</t>
   </si>
@@ -706,6 +706,72 @@
   </si>
   <si>
     <t>MATEUS DE BARROS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ANA VICTÓRIA PEÇANHA DE FARIAS SOUZA</t>
+  </si>
+  <si>
+    <t>BEATRIZ REGIS MACIEL</t>
+  </si>
+  <si>
+    <t>CAMILLY FERREIRA SANTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIOGO FONTES CABRAL GONÇALVES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENZO FERREIRA CANDEIA PASCHOALINO </t>
+  </si>
+  <si>
+    <t>ENZO MOREIRA SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ERIKA NEPOMUCENO DE OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>GABRIEL LUCAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUILHERME MAIA BATISTA </t>
+  </si>
+  <si>
+    <t>HADASSA VITORIA TAVARES DE BRITO SILVA</t>
+  </si>
+  <si>
+    <t>ITALO HENRIQUE DA SILVA NUNES</t>
+  </si>
+  <si>
+    <t>JORGE GUILHERME DE LIMA OLIVEIRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUAN VICTOR DA SILVA LIMA  </t>
+  </si>
+  <si>
+    <t>LARA FABIAN DE LIMA SANTOS</t>
+  </si>
+  <si>
+    <t>MARIA CLARA  MODESTO MATILHA</t>
+  </si>
+  <si>
+    <t>MARIA CLARA RIBEIRO MARCONDES</t>
+  </si>
+  <si>
+    <t>MARIANA DA SILVA</t>
+  </si>
+  <si>
+    <t>MIGUEL MAURICIO GOMES DAMASO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGUEL PEIXOTO NUNES </t>
+  </si>
+  <si>
+    <t>MILLENA CASCAIS DA SILVA</t>
+  </si>
+  <si>
+    <t>NAYANE PEREZ SOARES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>PEDRO VINICIOS FAGUNDES DA SILVA</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1447,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000136" footer="0.31496062000000136"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000152" footer="0.31496062000000152"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1451,7 +1517,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,7 +1534,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000158" footer="0.31496062000000158"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000186" footer="0.31496062000000186"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1503,10 +1569,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.13016418913610858"/>
-          <c:y val="0.1892744294290945"/>
-          <c:w val="0.84921143215807582"/>
-          <c:h val="0.30232635509000033"/>
+          <c:x val="0.13016418913610867"/>
+          <c:y val="0.18927442942909459"/>
+          <c:w val="0.8492114321580766"/>
+          <c:h val="0.30232635509000066"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1525,7 +1591,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6571906354515047</c:v>
+                  <c:v>4.2846153846153845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,7 +1610,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.21875</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,7 +1629,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0128205128205128</c:v>
+                  <c:v>3.168016194331984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,7 +1648,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.7912087912087911</c:v>
+                  <c:v>3.1846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,17 +1667,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0587044534412948</c:v>
+                  <c:v>3.3528428093645477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128421248"/>
-        <c:axId val="128435328"/>
+        <c:axId val="162460416"/>
+        <c:axId val="162461952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128421248"/>
+        <c:axId val="162460416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,14 +1685,14 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128435328"/>
+        <c:crossAx val="162461952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128435328"/>
+        <c:axId val="162461952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1701,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128421248"/>
+        <c:crossAx val="162460416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1660,7 +1726,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000186" footer="0.31496062000000186"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000202" footer="0.31496062000000202"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1747,7 +1813,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000113" footer="0.31496062000000113"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000141" footer="0.31496062000000141"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1794,7 +1860,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6571906354515047</c:v>
+                  <c:v>4.2846153846153845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1813,7 +1879,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.21875</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,7 +1898,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0128205128205128</c:v>
+                  <c:v>3.168016194331984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,7 +1917,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.7912087912087911</c:v>
+                  <c:v>3.1846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,17 +1936,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0587044534412948</c:v>
+                  <c:v>3.3528428093645477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="126487936"/>
-        <c:axId val="126497920"/>
+        <c:axId val="171108608"/>
+        <c:axId val="174821376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126487936"/>
+        <c:axId val="171108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,14 +1954,14 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126497920"/>
+        <c:crossAx val="174821376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126497920"/>
+        <c:axId val="174821376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1904,7 +1970,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126487936"/>
+        <c:crossAx val="171108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,7 +1995,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000186" footer="0.31496062000000186"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000202" footer="0.31496062000000202"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2016,7 +2082,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000136" footer="0.31496062000000136"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000152" footer="0.31496062000000152"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2063,7 +2129,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6571906354515047</c:v>
+                  <c:v>4.2846153846153845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2082,7 +2148,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.21875</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,7 +2167,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0128205128205128</c:v>
+                  <c:v>3.168016194331984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,7 +2186,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.7912087912087911</c:v>
+                  <c:v>3.1846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,17 +2205,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0587044534412948</c:v>
+                  <c:v>3.3528428093645477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="127913344"/>
-        <c:axId val="127927424"/>
+        <c:axId val="132944640"/>
+        <c:axId val="132946176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="127913344"/>
+        <c:axId val="132944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2157,14 +2223,14 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127927424"/>
+        <c:crossAx val="132946176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127927424"/>
+        <c:axId val="132946176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,7 +2239,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127913344"/>
+        <c:crossAx val="132944640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2198,7 +2264,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000186" footer="0.31496062000000186"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000202" footer="0.31496062000000202"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2285,7 +2351,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000158" footer="0.31496062000000158"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000186" footer="0.31496062000000186"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2332,7 +2398,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6571906354515047</c:v>
+                  <c:v>4.2846153846153845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,7 +2417,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.21875</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2370,7 +2436,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0128205128205128</c:v>
+                  <c:v>3.168016194331984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2389,7 +2455,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.7912087912087911</c:v>
+                  <c:v>3.1846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2408,17 +2474,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0587044534412948</c:v>
+                  <c:v>3.3528428093645477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128056320"/>
-        <c:axId val="128193280"/>
+        <c:axId val="134509312"/>
+        <c:axId val="134510848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128056320"/>
+        <c:axId val="134509312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,14 +2492,14 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128193280"/>
+        <c:crossAx val="134510848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128193280"/>
+        <c:axId val="134510848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2508,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128056320"/>
+        <c:crossAx val="134509312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2467,7 +2533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000163" footer="0.31496062000000163"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000191" footer="0.31496062000000191"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2560,7 +2626,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000147" footer="0.31496062000000147"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000163" footer="0.31496062000000163"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2607,7 +2673,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.6571906354515047</c:v>
+                  <c:v>4.2846153846153845</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,7 +2692,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.21875</c:v>
+                  <c:v>3.2142857142857144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2645,7 +2711,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0128205128205128</c:v>
+                  <c:v>3.168016194331984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2664,7 +2730,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.7912087912087911</c:v>
+                  <c:v>3.1846153846153844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2683,17 +2749,17 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.0587044534412948</c:v>
+                  <c:v>3.3528428093645477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="128847232"/>
-        <c:axId val="128877696"/>
+        <c:axId val="159990528"/>
+        <c:axId val="159992064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128847232"/>
+        <c:axId val="159990528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,14 +2767,14 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128877696"/>
+        <c:crossAx val="159992064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128877696"/>
+        <c:axId val="159992064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2783,7 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128847232"/>
+        <c:crossAx val="159990528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2742,7 +2808,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000186" footer="0.31496062000000186"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000202" footer="0.31496062000000202"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12038,8 +12104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:DL30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DG34" sqref="DG34"/>
+    <sheetView topLeftCell="CM1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DC9" sqref="DC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12396,7 +12462,7 @@
       </c>
       <c r="DL2" s="17">
         <f>AVERAGE(DD4:DD28)</f>
-        <v>24.217391304347824</v>
+        <v>22.28</v>
       </c>
     </row>
     <row r="3" spans="1:116" ht="15.75" thickBot="1">
@@ -12795,7 +12861,7 @@
       </c>
       <c r="DL3" s="17">
         <f>AVERAGE(DE4:DE28)</f>
-        <v>4.6571906354515047</v>
+        <v>4.2846153846153845</v>
       </c>
     </row>
     <row r="4" spans="1:116" ht="19.5" thickBot="1">
@@ -13447,8 +13513,12 @@
       <c r="DC5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="DD5" s="2"/>
-      <c r="DE5" s="2"/>
+      <c r="DD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="2">
+        <v>0</v>
+      </c>
       <c r="DF5" s="2" t="str">
         <f t="shared" si="2"/>
         <v>REPROVADO</v>
@@ -13830,7 +13900,7 @@
         <v>24</v>
       </c>
       <c r="DE6" s="2">
-        <f t="shared" ref="DE5:DE28" si="3">DD6/5.2</f>
+        <f t="shared" ref="DE6:DE28" si="3">DD6/5.2</f>
         <v>4.615384615384615</v>
       </c>
       <c r="DF6" s="2" t="str">
@@ -14869,8 +14939,12 @@
       <c r="DC9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
+      <c r="DD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE9" s="2">
+        <v>0</v>
+      </c>
       <c r="DF9" s="2" t="str">
         <f t="shared" si="2"/>
         <v>REPROVADO</v>
@@ -22688,10 +22762,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DF3:DF30">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="6">
@@ -22706,10 +22780,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF3:DF28">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="3">
@@ -22733,8 +22807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:DL34"/>
   <sheetViews>
-    <sheetView topLeftCell="CX4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DF29" sqref="DF29"/>
+    <sheetView topLeftCell="CX1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="DC22" sqref="DC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23092,7 +23166,7 @@
       </c>
       <c r="DL2" s="17">
         <f>AVERAGE(DD4:DD24)</f>
-        <v>21.9375</v>
+        <v>16.714285714285715</v>
       </c>
     </row>
     <row r="3" spans="1:116">
@@ -23491,7 +23565,7 @@
       </c>
       <c r="DL3" s="17">
         <f>AVERAGE(DE4:DE24)</f>
-        <v>4.21875</v>
+        <v>3.2142857142857144</v>
       </c>
     </row>
     <row r="4" spans="1:116">
@@ -27233,8 +27307,12 @@
         <f t="shared" si="1"/>
         <v>JOÃO VICTOR GAMARRA DOS PASSOS</v>
       </c>
-      <c r="DD13" s="2"/>
-      <c r="DE13" s="2"/>
+      <c r="DD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="2">
+        <v>0</v>
+      </c>
       <c r="DF13" s="2" t="str">
         <f t="shared" si="4"/>
         <v>REPROVADO</v>
@@ -28657,8 +28735,12 @@
         <f t="shared" ref="DC17:DC24" si="5">A17</f>
         <v>MARIA EDUARDA OLIVEIRA</v>
       </c>
-      <c r="DD17" s="2"/>
-      <c r="DE17" s="2"/>
+      <c r="DD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE17" s="2">
+        <v>0</v>
+      </c>
       <c r="DF17" s="2" t="str">
         <f t="shared" si="4"/>
         <v>REPROVADO</v>
@@ -28931,8 +29013,12 @@
         <f t="shared" si="5"/>
         <v>MARIANA BRIENCE DA SILVA DIAS</v>
       </c>
-      <c r="DD18" s="2"/>
-      <c r="DE18" s="2"/>
+      <c r="DD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="2">
+        <v>0</v>
+      </c>
       <c r="DF18" s="2" t="str">
         <f t="shared" si="4"/>
         <v>REPROVADO</v>
@@ -29976,8 +30062,12 @@
         <f t="shared" si="5"/>
         <v>SAMANTHA LANDGRAF RODRIGUEZ</v>
       </c>
-      <c r="DD21" s="2"/>
-      <c r="DE21" s="2"/>
+      <c r="DD21" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE21" s="2">
+        <v>0</v>
+      </c>
       <c r="DF21" s="2" t="str">
         <f t="shared" si="4"/>
         <v>REPROVADO</v>
@@ -30249,8 +30339,12 @@
         <f t="shared" si="5"/>
         <v>VICTOR HUGO CRUZ RIBEIRO</v>
       </c>
-      <c r="DD22" s="2"/>
-      <c r="DE22" s="2"/>
+      <c r="DD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE22" s="2">
+        <v>0</v>
+      </c>
       <c r="DF22" s="2" t="str">
         <f t="shared" si="4"/>
         <v>REPROVADO</v>
@@ -31562,10 +31656,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DF3:DF26">
-    <cfRule type="containsText" dxfId="17" priority="37" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="13" priority="37" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="38" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="12" priority="38" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="39">
@@ -31580,10 +31674,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF3:DF25">
-    <cfRule type="containsText" dxfId="15" priority="43" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="11" priority="43" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="44" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="10" priority="44" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="45">
@@ -31608,7 +31702,7 @@
   <dimension ref="A2:DL30"/>
   <sheetViews>
     <sheetView topLeftCell="CH1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DC6" sqref="DC6"/>
+      <selection activeCell="DC23" sqref="DC23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31966,7 +32060,7 @@
       </c>
       <c r="DL2" s="17">
         <f>AVERAGE(DD4:DD23)</f>
-        <v>20.866666666666667</v>
+        <v>15.65</v>
       </c>
     </row>
     <row r="3" spans="1:116" ht="15.75" thickBot="1">
@@ -32365,7 +32459,7 @@
       </c>
       <c r="DL3" s="17">
         <f>AVERAGE(DE4:DE22)</f>
-        <v>4.0128205128205128</v>
+        <v>3.168016194331984</v>
       </c>
     </row>
     <row r="4" spans="1:116" ht="19.5" thickBot="1">
@@ -32637,8 +32731,12 @@
         <f t="shared" ref="DC4:DC23" si="2">A4</f>
         <v>ALESSANDRO FERREIRA RODOLFO</v>
       </c>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
+      <c r="DD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>0</v>
+      </c>
       <c r="DF4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -33018,11 +33116,11 @@
         <v>ANA CLARA DOS SANTOS SOUSA</v>
       </c>
       <c r="DD5" s="2">
-        <f t="shared" ref="DD4:DD23" si="3">SUM(BB5:DA5)</f>
+        <f t="shared" ref="DD5:DD22" si="3">SUM(BB5:DA5)</f>
         <v>17</v>
       </c>
       <c r="DE5" s="2">
-        <f t="shared" ref="DE4:DE23" si="4">DD5/5.2</f>
+        <f t="shared" ref="DE5:DE22" si="4">DD5/5.2</f>
         <v>3.2692307692307692</v>
       </c>
       <c r="DF5" s="2" t="str">
@@ -37129,8 +37227,12 @@
         <f t="shared" si="2"/>
         <v>MARIANE FERNANDES DA COSTA</v>
       </c>
-      <c r="DD16" s="2"/>
-      <c r="DE16" s="2"/>
+      <c r="DD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE16" s="2">
+        <v>0</v>
+      </c>
       <c r="DF16" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -37791,8 +37893,12 @@
         <f t="shared" si="2"/>
         <v>MAYTE PESCUMA BERTOLINI</v>
       </c>
-      <c r="DD18" s="2"/>
-      <c r="DE18" s="2"/>
+      <c r="DD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="2">
+        <v>0</v>
+      </c>
       <c r="DF18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -38452,8 +38558,12 @@
         <f t="shared" si="2"/>
         <v>NICOLLY ANABEL MAGALHÃES MOREIRA</v>
       </c>
-      <c r="DD20" s="2"/>
-      <c r="DE20" s="2"/>
+      <c r="DD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE20" s="2">
+        <v>0</v>
+      </c>
       <c r="DF20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -39497,8 +39607,12 @@
         <f t="shared" si="2"/>
         <v>RAFAEL ALBERTO DE SOUZA SILVA</v>
       </c>
-      <c r="DD23" s="2"/>
-      <c r="DE23" s="2"/>
+      <c r="DD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE23" s="2">
+        <v>0</v>
+      </c>
       <c r="DF23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -40038,10 +40152,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DF3:DF25">
-    <cfRule type="containsText" dxfId="13" priority="49" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="9" priority="49" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="50" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="8" priority="50" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="51">
@@ -40056,10 +40170,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF3:DF23">
-    <cfRule type="containsText" dxfId="11" priority="55" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="7" priority="55" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="56" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="6" priority="56" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="57">
@@ -40083,8 +40197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:DL28"/>
   <sheetViews>
-    <sheetView topLeftCell="CA1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="DB8" sqref="DB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40442,7 +40556,7 @@
       </c>
       <c r="DL2" s="17">
         <f>AVERAGE(DD4:DD28)</f>
-        <v>19.714285714285715</v>
+        <v>16.559999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:116" ht="15.75" thickBot="1">
@@ -40826,7 +40940,7 @@
         <v>10</v>
       </c>
       <c r="DF3" s="2" t="str">
-        <f t="shared" ref="DF3:DF27" si="1">IF(DE3 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" ref="DF3:DF21" si="1">IF(DE3 &gt;=6, "APROVADO", "REPROVADO")</f>
         <v>APROVADO</v>
       </c>
       <c r="DH3" s="12" t="s">
@@ -40841,7 +40955,7 @@
       </c>
       <c r="DL3" s="17">
         <f>AVERAGE(DE4:DE28)</f>
-        <v>3.7912087912087911</v>
+        <v>3.1846153846153844</v>
       </c>
     </row>
     <row r="4" spans="1:116" ht="16.5" thickBot="1">
@@ -41110,8 +41224,12 @@
       <c r="DC4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
+      <c r="DD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2">
+        <v>0</v>
+      </c>
       <c r="DF4" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -41489,11 +41607,11 @@
         <v>15</v>
       </c>
       <c r="DD5" s="2">
-        <f t="shared" ref="DD4:DD26" si="2">SUM(BB5:DA5)</f>
+        <f t="shared" ref="DD5:DD21" si="2">SUM(BB5:DA5)</f>
         <v>23</v>
       </c>
       <c r="DE5" s="2">
-        <f t="shared" ref="DE4:DE27" si="3">DD5/5.2</f>
+        <f t="shared" ref="DE5:DE21" si="3">DD5/5.2</f>
         <v>4.4230769230769234</v>
       </c>
       <c r="DF5" s="2" t="str">
@@ -43687,8 +43805,12 @@
       <c r="DC11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="DD11" s="2"/>
-      <c r="DE11" s="2"/>
+      <c r="DD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="2">
+        <v>0</v>
+      </c>
       <c r="DF11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -45115,11 +45237,9 @@
         <v>25</v>
       </c>
       <c r="DD15" s="2">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="DE15" s="2">
-        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="DF15" s="2" t="str">
@@ -46161,8 +46281,12 @@
       <c r="DC18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="DD18" s="2"/>
-      <c r="DE18" s="2"/>
+      <c r="DD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE18" s="2">
+        <v>0</v>
+      </c>
       <c r="DF18" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
@@ -47700,7 +47824,7 @@
         <v>4.8076923076923075</v>
       </c>
       <c r="DF22" s="2" t="str">
-        <f>IF(DE22 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" ref="DF22:DF28" si="4">IF(DE22 &gt;=6, "APROVADO", "REPROVADO")</f>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -47970,10 +48094,14 @@
       <c r="DC23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="DD23" s="2"/>
-      <c r="DE23" s="2"/>
+      <c r="DD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE23" s="2">
+        <v>0</v>
+      </c>
       <c r="DF23" s="2" t="str">
-        <f>IF(DE23 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" si="4"/>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -48357,7 +48485,7 @@
         <v>2.6923076923076921</v>
       </c>
       <c r="DF24" s="2" t="str">
-        <f>IF(DE24 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" si="4"/>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -48741,7 +48869,7 @@
         <v>2.8846153846153846</v>
       </c>
       <c r="DF25" s="2" t="str">
-        <f>IF(DE25 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" si="4"/>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -49123,7 +49251,7 @@
         <v>4.8076923076923075</v>
       </c>
       <c r="DF26" s="2" t="str">
-        <f>IF(DE26 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" si="4"/>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -49507,7 +49635,7 @@
         <v>3.0769230769230766</v>
       </c>
       <c r="DF27" s="2" t="str">
-        <f>IF(DE27 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" si="4"/>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -49891,7 +50019,7 @@
         <v>2.5</v>
       </c>
       <c r="DF28" s="2" t="str">
-        <f>IF(DE28 &gt;=6, "APROVADO", "REPROVADO")</f>
+        <f t="shared" si="4"/>
         <v>REPROVADO</v>
       </c>
     </row>
@@ -49926,7 +50054,7 @@
   <dimension ref="A2:DL29"/>
   <sheetViews>
     <sheetView topLeftCell="CU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="DE6" sqref="DE6"/>
+      <selection activeCell="DC26" sqref="DC26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50288,7 +50416,7 @@
       </c>
       <c r="DL2" s="17">
         <f>AVERAGE(DD4:DD28)</f>
-        <v>21.105263157894736</v>
+        <v>17.434782608695652</v>
       </c>
     </row>
     <row r="3" spans="1:116">
@@ -50680,20 +50808,19 @@
       </c>
       <c r="DI3">
         <f>COUNTIF(DF4:DF28,"REPROVADO")</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="DK3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="DL3" s="17">
         <f>AVERAGE(DE4:DE28)</f>
-        <v>4.0587044534412948</v>
+        <v>3.3528428093645477</v>
       </c>
     </row>
     <row r="4" spans="1:116">
-      <c r="A4" s="1" t="str">
-        <f>'[1]9º C '!B5</f>
-        <v>ANA VICTÓRIA PEÇANHA DE FARIAS SOUZA</v>
+      <c r="A4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>2</v>
@@ -51059,16 +51186,15 @@
         <f>IF(BA4 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC4" s="14" t="str">
-        <f t="shared" ref="DC4:DC28" si="2">A4</f>
-        <v>ANA VICTÓRIA PEÇANHA DE FARIAS SOUZA</v>
+      <c r="DC4" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="DD4" s="2">
-        <f t="shared" ref="DD4:DD28" si="3">SUM(BB4:DA4)</f>
+        <f t="shared" ref="DD4:DD28" si="2">SUM(BB4:DA4)</f>
         <v>25</v>
       </c>
       <c r="DE4" s="2">
-        <f t="shared" ref="DE4:DE28" si="4">DD4/5.2</f>
+        <f t="shared" ref="DE4:DE28" si="3">DD4/5.2</f>
         <v>4.8076923076923075</v>
       </c>
       <c r="DF4" s="2" t="str">
@@ -51077,9 +51203,8 @@
       </c>
     </row>
     <row r="5" spans="1:116">
-      <c r="A5" s="1" t="str">
-        <f>'[1]9º C '!B6</f>
-        <v>BEATRIZ REGIS MACIEL</v>
+      <c r="A5" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>4</v>
@@ -51445,16 +51570,15 @@
         <f>IF(BA5 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC5" s="14" t="str">
+      <c r="DC5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="DD5" s="2">
         <f t="shared" si="2"/>
-        <v>BEATRIZ REGIS MACIEL</v>
-      </c>
-      <c r="DD5" s="2">
+        <v>23</v>
+      </c>
+      <c r="DE5" s="2">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="DE5" s="2">
-        <f t="shared" si="4"/>
         <v>4.4230769230769234</v>
       </c>
       <c r="DF5" s="2" t="str">
@@ -51463,10 +51587,7 @@
       </c>
     </row>
     <row r="6" spans="1:116">
-      <c r="A6" s="1" t="str">
-        <f>'[1]9º C '!B7</f>
-        <v>BRENO AUGUSTO SOARES SOUZA</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -51725,21 +51846,14 @@
         <f>IF(BA6 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC6" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>BRENO AUGUSTO SOARES SOUZA</v>
-      </c>
+      <c r="DC6" s="14"/>
       <c r="DD6" s="2"/>
       <c r="DE6" s="2"/>
-      <c r="DF6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>REPROVADO</v>
-      </c>
+      <c r="DF6" s="2"/>
     </row>
     <row r="7" spans="1:116">
-      <c r="A7" s="1" t="str">
-        <f>'[1]9º C '!B8</f>
-        <v>CAMILLY FERREIRA SANTOS</v>
+      <c r="A7" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>3</v>
@@ -52105,16 +52219,15 @@
         <f>IF(BA7 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC7" s="14" t="str">
+      <c r="DC7" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="DD7" s="2">
         <f t="shared" si="2"/>
-        <v>CAMILLY FERREIRA SANTOS</v>
-      </c>
-      <c r="DD7" s="2">
+        <v>23</v>
+      </c>
+      <c r="DE7" s="2">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="DE7" s="2">
-        <f t="shared" si="4"/>
         <v>4.4230769230769234</v>
       </c>
       <c r="DF7" s="2" t="str">
@@ -52123,9 +52236,8 @@
       </c>
     </row>
     <row r="8" spans="1:116">
-      <c r="A8" s="1" t="str">
-        <f>'[1]9º C '!B9</f>
-        <v xml:space="preserve">DIOGO FONTES CABRAL GONÇALVES </v>
+      <c r="A8" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>4</v>
@@ -52491,16 +52603,15 @@
         <f>IF(BA8 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC8" s="14" t="str">
+      <c r="DC8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="DD8" s="2">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">DIOGO FONTES CABRAL GONÇALVES </v>
-      </c>
-      <c r="DD8" s="2">
+        <v>32</v>
+      </c>
+      <c r="DE8" s="2">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="DE8" s="2">
-        <f t="shared" si="4"/>
         <v>6.1538461538461533</v>
       </c>
       <c r="DF8" s="2" t="str">
@@ -52509,9 +52620,8 @@
       </c>
     </row>
     <row r="9" spans="1:116">
-      <c r="A9" s="1" t="str">
-        <f>'[1]9º C '!B10</f>
-        <v xml:space="preserve">ENZO FERREIRA CANDEIA PASCHOALINO </v>
+      <c r="A9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>4</v>
@@ -52849,16 +52959,15 @@
         <f>IF(BA9 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC9" s="14" t="str">
+      <c r="DC9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DD9" s="2">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">ENZO FERREIRA CANDEIA PASCHOALINO </v>
-      </c>
-      <c r="DD9" s="2">
+        <v>18</v>
+      </c>
+      <c r="DE9" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="DE9" s="2">
-        <f t="shared" si="4"/>
         <v>3.4615384615384612</v>
       </c>
       <c r="DF9" s="2" t="str">
@@ -52867,9 +52976,8 @@
       </c>
     </row>
     <row r="10" spans="1:116">
-      <c r="A10" s="1" t="str">
-        <f>'[1]9º C '!B11</f>
-        <v>ENZO MOREIRA SOARES DOS SANTOS</v>
+      <c r="A10" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -53129,21 +53237,23 @@
         <f>IF(BA10 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC10" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>ENZO MOREIRA SOARES DOS SANTOS</v>
-      </c>
-      <c r="DD10" s="2"/>
-      <c r="DE10" s="2"/>
+      <c r="DC10" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="DD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="2">
+        <v>0</v>
+      </c>
       <c r="DF10" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
       </c>
     </row>
     <row r="11" spans="1:116">
-      <c r="A11" s="1" t="str">
-        <f>'[1]9º C '!B12</f>
-        <v>ERIKA NEPOMUCENO DE OLIVEIRA DA SILVA</v>
+      <c r="A11" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>3</v>
@@ -53509,16 +53619,15 @@
         <f>IF(BA11 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC11" s="14" t="str">
+      <c r="DC11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="DD11" s="2">
         <f t="shared" si="2"/>
-        <v>ERIKA NEPOMUCENO DE OLIVEIRA DA SILVA</v>
-      </c>
-      <c r="DD11" s="2">
+        <v>22</v>
+      </c>
+      <c r="DE11" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="DE11" s="2">
-        <f t="shared" si="4"/>
         <v>4.2307692307692308</v>
       </c>
       <c r="DF11" s="2" t="str">
@@ -53527,9 +53636,8 @@
       </c>
     </row>
     <row r="12" spans="1:116">
-      <c r="A12" s="1" t="str">
-        <f>'[1]9º C '!B13</f>
-        <v>GABRIEL LUCAS DE ALMEIDA</v>
+      <c r="A12" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -53789,10 +53897,7 @@
         <f>IF(BA12 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC12" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>GABRIEL LUCAS DE ALMEIDA</v>
-      </c>
+      <c r="DC12" s="14"/>
       <c r="DD12" s="2"/>
       <c r="DE12" s="2"/>
       <c r="DF12" s="2" t="str">
@@ -53801,9 +53906,8 @@
       </c>
     </row>
     <row r="13" spans="1:116">
-      <c r="A13" s="1" t="str">
-        <f>'[1]9º C '!B14</f>
-        <v xml:space="preserve">GUILHERME MAIA BATISTA </v>
+      <c r="A13" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>2</v>
@@ -54169,16 +54273,15 @@
         <f>IF(BA13 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC13" s="14" t="str">
+      <c r="DC13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="DD13" s="2">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">GUILHERME MAIA BATISTA </v>
-      </c>
-      <c r="DD13" s="2">
+        <v>18</v>
+      </c>
+      <c r="DE13" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="DE13" s="2">
-        <f t="shared" si="4"/>
         <v>3.4615384615384612</v>
       </c>
       <c r="DF13" s="2" t="str">
@@ -54187,9 +54290,8 @@
       </c>
     </row>
     <row r="14" spans="1:116">
-      <c r="A14" s="1" t="str">
-        <f>'[1]9º C '!B15</f>
-        <v>HADASSA VITORIA TAVARES DE BRITO SILVA</v>
+      <c r="A14" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2</v>
@@ -54537,16 +54639,15 @@
         <f>IF(BA14 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC14" s="14" t="str">
+      <c r="DC14" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="DD14" s="2">
         <f t="shared" si="2"/>
-        <v>HADASSA VITORIA TAVARES DE BRITO SILVA</v>
-      </c>
-      <c r="DD14" s="2">
+        <v>18</v>
+      </c>
+      <c r="DE14" s="2">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="DE14" s="2">
-        <f t="shared" si="4"/>
         <v>3.4615384615384612</v>
       </c>
       <c r="DF14" s="2" t="str">
@@ -54555,9 +54656,8 @@
       </c>
     </row>
     <row r="15" spans="1:116">
-      <c r="A15" s="1" t="str">
-        <f>'[1]9º C '!B16</f>
-        <v>ITALO HENRIQUE DA SILVA NUNES</v>
+      <c r="A15" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>2</v>
@@ -54923,16 +55023,15 @@
         <f>IF(BA15 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC15" s="14" t="str">
+      <c r="DC15" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="DD15" s="2">
         <f t="shared" si="2"/>
-        <v>ITALO HENRIQUE DA SILVA NUNES</v>
-      </c>
-      <c r="DD15" s="2">
+        <v>21</v>
+      </c>
+      <c r="DE15" s="2">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="DE15" s="2">
-        <f t="shared" si="4"/>
         <v>4.0384615384615383</v>
       </c>
       <c r="DF15" s="2" t="str">
@@ -54941,9 +55040,8 @@
       </c>
     </row>
     <row r="16" spans="1:116">
-      <c r="A16" s="1" t="str">
-        <f>'[1]9º C '!B17</f>
-        <v>JORGE GUILHERME DE LIMA OLIVEIRA</v>
+      <c r="A16" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -55309,16 +55407,15 @@
         <f>IF(BA16 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC16" s="14" t="str">
+      <c r="DC16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD16" s="2">
         <f t="shared" si="2"/>
-        <v>JORGE GUILHERME DE LIMA OLIVEIRA</v>
-      </c>
-      <c r="DD16" s="2">
+        <v>20</v>
+      </c>
+      <c r="DE16" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="DE16" s="2">
-        <f t="shared" si="4"/>
         <v>3.8461538461538458</v>
       </c>
       <c r="DF16" s="2" t="str">
@@ -55327,9 +55424,8 @@
       </c>
     </row>
     <row r="17" spans="1:110">
-      <c r="A17" s="1" t="str">
-        <f>'[1]9º C '!B18</f>
-        <v xml:space="preserve">JUAN VICTOR DA SILVA LIMA  </v>
+      <c r="A17" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>2</v>
@@ -55695,16 +55791,15 @@
         <f>IF(BA17 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC17" s="14" t="str">
+      <c r="DC17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="DD17" s="2">
         <f t="shared" si="2"/>
-        <v xml:space="preserve">JUAN VICTOR DA SILVA LIMA  </v>
-      </c>
-      <c r="DD17" s="2">
+        <v>25</v>
+      </c>
+      <c r="DE17" s="2">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="DE17" s="2">
-        <f t="shared" si="4"/>
         <v>4.8076923076923075</v>
       </c>
       <c r="DF17" s="2" t="str">
@@ -55713,9 +55808,8 @@
       </c>
     </row>
     <row r="18" spans="1:110">
-      <c r="A18" s="1" t="str">
-        <f>'[1]9º C '!B19</f>
-        <v>LARA FABIAN DE LIMA SANTOS</v>
+      <c r="A18" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>2</v>
@@ -56081,16 +56175,15 @@
         <f>IF(BA18 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC18" s="14" t="str">
+      <c r="DC18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="DD18" s="2">
         <f t="shared" si="2"/>
-        <v>LARA FABIAN DE LIMA SANTOS</v>
-      </c>
-      <c r="DD18" s="2">
+        <v>20</v>
+      </c>
+      <c r="DE18" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="DE18" s="2">
-        <f t="shared" si="4"/>
         <v>3.8461538461538458</v>
       </c>
       <c r="DF18" s="2" t="str">
@@ -56099,9 +56192,8 @@
       </c>
     </row>
     <row r="19" spans="1:110">
-      <c r="A19" s="1" t="str">
-        <f>'[1]9º C '!B20</f>
-        <v>MARIA CLARA  MODESTO MATILHA</v>
+      <c r="A19" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>2</v>
@@ -56467,16 +56559,15 @@
         <f>IF(BA19 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC19" s="14" t="str">
+      <c r="DC19" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD19" s="2">
         <f t="shared" si="2"/>
-        <v>MARIA CLARA  MODESTO MATILHA</v>
-      </c>
-      <c r="DD19" s="2">
+        <v>20</v>
+      </c>
+      <c r="DE19" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="DE19" s="2">
-        <f t="shared" si="4"/>
         <v>3.8461538461538458</v>
       </c>
       <c r="DF19" s="2" t="str">
@@ -56485,9 +56576,8 @@
       </c>
     </row>
     <row r="20" spans="1:110">
-      <c r="A20" s="1" t="str">
-        <f>'[1]9º C '!B21</f>
-        <v>MARIA CLARA RIBEIRO MARCONDES</v>
+      <c r="A20" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>2</v>
@@ -56853,16 +56943,15 @@
         <f>IF(BA20 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC20" s="14" t="str">
+      <c r="DC20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="DD20" s="2">
         <f t="shared" si="2"/>
-        <v>MARIA CLARA RIBEIRO MARCONDES</v>
-      </c>
-      <c r="DD20" s="2">
+        <v>13</v>
+      </c>
+      <c r="DE20" s="2">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="DE20" s="2">
-        <f t="shared" si="4"/>
         <v>2.5</v>
       </c>
       <c r="DF20" s="2" t="str">
@@ -56871,9 +56960,8 @@
       </c>
     </row>
     <row r="21" spans="1:110">
-      <c r="A21" s="1" t="str">
-        <f>'[1]9º C '!B22</f>
-        <v>MARIANA DA SILVA</v>
+      <c r="A21" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>4</v>
@@ -57239,16 +57327,15 @@
         <f>IF(BA21 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC21" s="14" t="str">
+      <c r="DC21" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="DD21" s="2">
         <f t="shared" si="2"/>
-        <v>MARIANA DA SILVA</v>
-      </c>
-      <c r="DD21" s="2">
+        <v>24</v>
+      </c>
+      <c r="DE21" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="DE21" s="2">
-        <f t="shared" si="4"/>
         <v>4.615384615384615</v>
       </c>
       <c r="DF21" s="2" t="str">
@@ -57257,9 +57344,8 @@
       </c>
     </row>
     <row r="22" spans="1:110">
-      <c r="A22" s="1" t="str">
-        <f>'[1]9º C '!B23</f>
-        <v>MIGUEL MAURICIO GOMES DAMASO</v>
+      <c r="A22" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -57519,21 +57605,23 @@
         <f>IF(BA22 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC22" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>MIGUEL MAURICIO GOMES DAMASO</v>
-      </c>
-      <c r="DD22" s="2"/>
-      <c r="DE22" s="2"/>
+      <c r="DC22" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="DD22" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE22" s="2">
+        <v>0</v>
+      </c>
       <c r="DF22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
       </c>
     </row>
     <row r="23" spans="1:110">
-      <c r="A23" s="1" t="str">
-        <f>'[1]9º C '!B24</f>
-        <v xml:space="preserve">MIGUEL PEIXOTO NUNES </v>
+      <c r="A23" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -57793,21 +57881,23 @@
         <f>IF(BA23 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC23" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">MIGUEL PEIXOTO NUNES </v>
-      </c>
-      <c r="DD23" s="2"/>
-      <c r="DE23" s="2"/>
+      <c r="DC23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="DD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE23" s="2">
+        <v>0</v>
+      </c>
       <c r="DF23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
       </c>
     </row>
     <row r="24" spans="1:110">
-      <c r="A24" s="1" t="str">
-        <f>'[1]9º C '!B25</f>
-        <v>MILLENA CASCAIS DA SILVA</v>
+      <c r="A24" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -58067,21 +58157,23 @@
         <f>IF(BA24 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>MILLENA CASCAIS DA SILVA</v>
-      </c>
-      <c r="DD24" s="2"/>
-      <c r="DE24" s="2"/>
+      <c r="DC24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="DD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="DE24" s="2">
+        <v>0</v>
+      </c>
       <c r="DF24" s="2" t="str">
         <f t="shared" si="1"/>
         <v>REPROVADO</v>
       </c>
     </row>
     <row r="25" spans="1:110">
-      <c r="A25" s="1" t="str">
-        <f>'[1]9º C '!B26</f>
-        <v>NAYANE PEREZ SOARES DOS SANTOS</v>
+      <c r="A25" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>2</v>
@@ -58447,16 +58539,15 @@
         <f>IF(BA25 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC25" s="14" t="str">
+      <c r="DC25" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="DD25" s="2">
         <f t="shared" si="2"/>
-        <v>NAYANE PEREZ SOARES DOS SANTOS</v>
-      </c>
-      <c r="DD25" s="2">
+        <v>20</v>
+      </c>
+      <c r="DE25" s="2">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="DE25" s="2">
-        <f t="shared" si="4"/>
         <v>3.8461538461538458</v>
       </c>
       <c r="DF25" s="2" t="str">
@@ -58465,9 +58556,8 @@
       </c>
     </row>
     <row r="26" spans="1:110">
-      <c r="A26" s="1" t="str">
-        <f>'[1]9º C '!B27</f>
-        <v>PEDRO VINICIOS FAGUNDES DA SILVA</v>
+      <c r="A26" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>3</v>
@@ -58833,16 +58923,15 @@
         <f>IF(BA26 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC26" s="14" t="str">
+      <c r="DC26" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="DD26" s="2">
         <f t="shared" si="2"/>
-        <v>PEDRO VINICIOS FAGUNDES DA SILVA</v>
-      </c>
-      <c r="DD26" s="2">
+        <v>21</v>
+      </c>
+      <c r="DE26" s="2">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="DE26" s="2">
-        <f t="shared" si="4"/>
         <v>4.0384615384615383</v>
       </c>
       <c r="DF26" s="2" t="str">
@@ -59218,16 +59307,15 @@
         <f>IF(BA27 = Gabarito!AZ$3, 1, 0)</f>
         <v>0</v>
       </c>
-      <c r="DC27" s="14" t="str">
+      <c r="DC27" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="DD27" s="2">
         <f t="shared" si="2"/>
-        <v>RIAN PADUA SANTOS</v>
-      </c>
-      <c r="DD27" s="2">
+        <v>15</v>
+      </c>
+      <c r="DE27" s="2">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="DE27" s="2">
-        <f t="shared" si="4"/>
         <v>2.8846153846153846</v>
       </c>
       <c r="DF27" s="2" t="str">
@@ -59603,16 +59691,15 @@
         <f>IF(BA28 = Gabarito!AZ$3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="DC28" s="1" t="str">
+      <c r="DC28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="DD28" s="2">
         <f t="shared" si="2"/>
-        <v>VICTORIA DA SILVA</v>
-      </c>
-      <c r="DD28" s="2">
+        <v>23</v>
+      </c>
+      <c r="DE28" s="2">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="DE28" s="2">
-        <f t="shared" si="4"/>
         <v>4.4230769230769234</v>
       </c>
       <c r="DF28" s="2" t="str">
@@ -59625,10 +59712,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="DF3:DF28">
-    <cfRule type="containsText" dxfId="9" priority="28" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="3" priority="28" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="29" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="2" priority="29" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="30">
@@ -59643,10 +59730,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DF3:DF28">
-    <cfRule type="containsText" dxfId="7" priority="34" operator="containsText" text="REPROVADO">
+    <cfRule type="containsText" dxfId="1" priority="34" operator="containsText" text="REPROVADO">
       <formula>NOT(ISERROR(SEARCH("REPROVADO",DF3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="APROVADO">
+    <cfRule type="containsText" dxfId="0" priority="35" operator="containsText" text="APROVADO">
       <formula>NOT(ISERROR(SEARCH("APROVADO",DF3)))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="36">
